--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H2">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I2">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J2">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.84069881079411</v>
+        <v>6.8585525</v>
       </c>
       <c r="N2">
-        <v>6.84069881079411</v>
+        <v>13.717105</v>
       </c>
       <c r="O2">
-        <v>0.07853355393897071</v>
+        <v>0.07603054156603395</v>
       </c>
       <c r="P2">
-        <v>0.07853355393897071</v>
+        <v>0.05736212983602292</v>
       </c>
       <c r="Q2">
-        <v>8.384905622880737</v>
+        <v>8.406843292665</v>
       </c>
       <c r="R2">
-        <v>8.384905622880737</v>
+        <v>33.62737317066</v>
       </c>
       <c r="S2">
-        <v>0.01500178235055867</v>
+        <v>0.007950261234341824</v>
       </c>
       <c r="T2">
-        <v>0.01500178235055867</v>
+        <v>0.005685796284751534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H3">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I3">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J3">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.8262953651187</v>
+        <v>12.43236666666667</v>
       </c>
       <c r="N3">
-        <v>11.8262953651187</v>
+        <v>37.2971</v>
       </c>
       <c r="O3">
-        <v>0.1357699016786463</v>
+        <v>0.1378191055057426</v>
       </c>
       <c r="P3">
-        <v>0.1357699016786463</v>
+        <v>0.1559688500384834</v>
       </c>
       <c r="Q3">
-        <v>14.49594160590163</v>
+        <v>15.2389237122</v>
       </c>
       <c r="R3">
-        <v>14.49594160590163</v>
+        <v>91.4335422732</v>
       </c>
       <c r="S3">
-        <v>0.02593529023686631</v>
+        <v>0.01441128616586714</v>
       </c>
       <c r="T3">
-        <v>0.02593529023686631</v>
+        <v>0.01545980092825756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H4">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I4">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J4">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.4040871975781</v>
+        <v>22.947038</v>
       </c>
       <c r="N4">
-        <v>22.4040871975781</v>
+        <v>68.841114</v>
       </c>
       <c r="O4">
-        <v>0.2572065572610926</v>
+        <v>0.2543795832249386</v>
       </c>
       <c r="P4">
-        <v>0.2572065572610926</v>
+        <v>0.287879470145082</v>
       </c>
       <c r="Q4">
-        <v>27.46154477990757</v>
+        <v>28.127240040348</v>
       </c>
       <c r="R4">
-        <v>27.46154477990757</v>
+        <v>168.763440242088</v>
       </c>
       <c r="S4">
-        <v>0.04913258852599416</v>
+        <v>0.02659962822393921</v>
       </c>
       <c r="T4">
-        <v>0.04913258852599416</v>
+        <v>0.02853492411258475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H5">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I5">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J5">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.2164749806597</v>
+        <v>16.123205</v>
       </c>
       <c r="N5">
-        <v>15.2164749806597</v>
+        <v>48.369615</v>
       </c>
       <c r="O5">
-        <v>0.1746903191774809</v>
+        <v>0.1787339249688891</v>
       </c>
       <c r="P5">
-        <v>0.1746903191774809</v>
+        <v>0.2022718449518643</v>
       </c>
       <c r="Q5">
-        <v>18.65141415441828</v>
+        <v>19.76295403593</v>
       </c>
       <c r="R5">
-        <v>18.65141415441828</v>
+        <v>118.57772421558</v>
       </c>
       <c r="S5">
-        <v>0.03337001849027158</v>
+        <v>0.01868961295912604</v>
       </c>
       <c r="T5">
-        <v>0.03337001849027158</v>
+        <v>0.02004940381092527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H6">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I6">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J6">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.68054366758539</v>
+        <v>7.213393000000001</v>
       </c>
       <c r="N6">
-        <v>6.68054366758539</v>
+        <v>21.640179</v>
       </c>
       <c r="O6">
-        <v>0.07669491830748536</v>
+        <v>0.07996412892059052</v>
       </c>
       <c r="P6">
-        <v>0.07669491830748536</v>
+        <v>0.09049480611781982</v>
       </c>
       <c r="Q6">
-        <v>8.188597351172429</v>
+        <v>8.841787616178001</v>
       </c>
       <c r="R6">
-        <v>8.188597351172429</v>
+        <v>53.05072569706801</v>
       </c>
       <c r="S6">
-        <v>0.0146505590812417</v>
+        <v>0.008361583400575075</v>
       </c>
       <c r="T6">
-        <v>0.0146505590812417</v>
+        <v>0.008969942955132164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H7">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I7">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J7">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.137327756435</v>
+        <v>24.6333055</v>
       </c>
       <c r="N7">
-        <v>24.137327756435</v>
+        <v>49.266611</v>
       </c>
       <c r="O7">
-        <v>0.2771047496363243</v>
+        <v>0.2730727158138051</v>
       </c>
       <c r="P7">
-        <v>0.2771047496363243</v>
+        <v>0.2060228989107275</v>
       </c>
       <c r="Q7">
-        <v>29.58604388588079</v>
+        <v>30.194175683403</v>
       </c>
       <c r="R7">
-        <v>29.58604388588079</v>
+        <v>120.776702733612</v>
       </c>
       <c r="S7">
-        <v>0.05293361797405334</v>
+        <v>0.02855430701891532</v>
       </c>
       <c r="T7">
-        <v>0.05293361797405334</v>
+        <v>0.02042121233205542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H8">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J8">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.84069881079411</v>
+        <v>6.8585525</v>
       </c>
       <c r="N8">
-        <v>6.84069881079411</v>
+        <v>13.717105</v>
       </c>
       <c r="O8">
-        <v>0.07853355393897071</v>
+        <v>0.07603054156603395</v>
       </c>
       <c r="P8">
-        <v>0.07853355393897071</v>
+        <v>0.05736212983602292</v>
       </c>
       <c r="Q8">
-        <v>3.558405688285267</v>
+        <v>4.231463981320833</v>
       </c>
       <c r="R8">
-        <v>3.558405688285267</v>
+        <v>25.388783887925</v>
       </c>
       <c r="S8">
-        <v>0.006366491174924555</v>
+        <v>0.004001649951600839</v>
       </c>
       <c r="T8">
-        <v>0.006366491174924555</v>
+        <v>0.004292796001986685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H9">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J9">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.8262953651187</v>
+        <v>12.43236666666667</v>
       </c>
       <c r="N9">
-        <v>11.8262953651187</v>
+        <v>37.2971</v>
       </c>
       <c r="O9">
-        <v>0.1357699016786463</v>
+        <v>0.1378191055057426</v>
       </c>
       <c r="P9">
-        <v>0.1357699016786463</v>
+        <v>0.1559688500384834</v>
       </c>
       <c r="Q9">
-        <v>6.151821306936748</v>
+        <v>7.670293659277777</v>
       </c>
       <c r="R9">
-        <v>6.151821306936748</v>
+        <v>69.0326429335</v>
       </c>
       <c r="S9">
-        <v>0.01100647860058891</v>
+        <v>0.007253714172188746</v>
       </c>
       <c r="T9">
-        <v>0.01100647860058891</v>
+        <v>0.01167220355648642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H10">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J10">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.4040871975781</v>
+        <v>22.947038</v>
       </c>
       <c r="N10">
-        <v>22.4040871975781</v>
+        <v>68.841114</v>
       </c>
       <c r="O10">
-        <v>0.2572065572610926</v>
+        <v>0.2543795832249386</v>
       </c>
       <c r="P10">
-        <v>0.2572065572610926</v>
+        <v>0.287879470145082</v>
       </c>
       <c r="Q10">
-        <v>11.65419404212102</v>
+        <v>14.15744280954333</v>
       </c>
       <c r="R10">
-        <v>11.65419404212102</v>
+        <v>127.41698528589</v>
       </c>
       <c r="S10">
-        <v>0.02085100183047867</v>
+        <v>0.01338854131423251</v>
       </c>
       <c r="T10">
-        <v>0.02085100183047867</v>
+        <v>0.02154396710905906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H11">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J11">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.2164749806597</v>
+        <v>16.123205</v>
       </c>
       <c r="N11">
-        <v>15.2164749806597</v>
+        <v>48.369615</v>
       </c>
       <c r="O11">
-        <v>0.1746903191774809</v>
+        <v>0.1787339249688891</v>
       </c>
       <c r="P11">
-        <v>0.1746903191774809</v>
+        <v>0.2022718449518643</v>
       </c>
       <c r="Q11">
-        <v>7.915330381362645</v>
+        <v>9.947399428808334</v>
       </c>
       <c r="R11">
-        <v>7.915330381362645</v>
+        <v>89.52659485927499</v>
       </c>
       <c r="S11">
-        <v>0.01416164581387035</v>
+        <v>0.009407148594094805</v>
       </c>
       <c r="T11">
-        <v>0.01416164581387035</v>
+        <v>0.01513736972120832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H12">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J12">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.68054366758539</v>
+        <v>7.213393000000001</v>
       </c>
       <c r="N12">
-        <v>6.68054366758539</v>
+        <v>21.640179</v>
       </c>
       <c r="O12">
-        <v>0.07669491830748536</v>
+        <v>0.07996412892059052</v>
       </c>
       <c r="P12">
-        <v>0.07669491830748536</v>
+        <v>0.09049480611781982</v>
       </c>
       <c r="Q12">
-        <v>3.475095928805316</v>
+        <v>4.450386967601667</v>
       </c>
       <c r="R12">
-        <v>3.475095928805316</v>
+        <v>40.053482708415</v>
       </c>
       <c r="S12">
-        <v>0.006217438229595608</v>
+        <v>0.004208683063857546</v>
       </c>
       <c r="T12">
-        <v>0.006217438229595608</v>
+        <v>0.006772338178753915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H13">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J13">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.137327756435</v>
+        <v>24.6333055</v>
       </c>
       <c r="N13">
-        <v>24.137327756435</v>
+        <v>49.266611</v>
       </c>
       <c r="O13">
-        <v>0.2771047496363243</v>
+        <v>0.2730727158138051</v>
       </c>
       <c r="P13">
-        <v>0.2771047496363243</v>
+        <v>0.2060228989107275</v>
       </c>
       <c r="Q13">
-        <v>12.55579389827477</v>
+        <v>15.19780521678917</v>
       </c>
       <c r="R13">
-        <v>12.55579389827477</v>
+        <v>91.18683130073499</v>
       </c>
       <c r="S13">
-        <v>0.02246409152017117</v>
+        <v>0.01437240084724053</v>
       </c>
       <c r="T13">
-        <v>0.02246409152017117</v>
+        <v>0.01541808644989108</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H14">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I14">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J14">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.84069881079411</v>
+        <v>6.8585525</v>
       </c>
       <c r="N14">
-        <v>6.84069881079411</v>
+        <v>13.717105</v>
       </c>
       <c r="O14">
-        <v>0.07853355393897071</v>
+        <v>0.07603054156603395</v>
       </c>
       <c r="P14">
-        <v>0.07853355393897071</v>
+        <v>0.05736212983602292</v>
       </c>
       <c r="Q14">
-        <v>4.270090098423402</v>
+        <v>4.602369928152501</v>
       </c>
       <c r="R14">
-        <v>4.270090098423402</v>
+        <v>27.614219568915</v>
       </c>
       <c r="S14">
-        <v>0.007639795264841071</v>
+        <v>0.00435241171413488</v>
       </c>
       <c r="T14">
-        <v>0.007639795264841071</v>
+        <v>0.004669077963194603</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H15">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I15">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J15">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.8262953651187</v>
+        <v>12.43236666666667</v>
       </c>
       <c r="N15">
-        <v>11.8262953651187</v>
+        <v>37.2971</v>
       </c>
       <c r="O15">
-        <v>0.1357699016786463</v>
+        <v>0.1378191055057426</v>
       </c>
       <c r="P15">
-        <v>0.1357699016786463</v>
+        <v>0.1559688500384834</v>
       </c>
       <c r="Q15">
-        <v>7.382191225834962</v>
+        <v>8.342627760366668</v>
       </c>
       <c r="R15">
-        <v>7.382191225834962</v>
+        <v>75.08364984330001</v>
       </c>
       <c r="S15">
-        <v>0.01320778444279398</v>
+        <v>0.007889533296482022</v>
       </c>
       <c r="T15">
-        <v>0.01320778444279398</v>
+        <v>0.01269532220545556</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H16">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I16">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J16">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.4040871975781</v>
+        <v>22.947038</v>
       </c>
       <c r="N16">
-        <v>22.4040871975781</v>
+        <v>68.841114</v>
       </c>
       <c r="O16">
-        <v>0.2572065572610926</v>
+        <v>0.2543795832249386</v>
       </c>
       <c r="P16">
-        <v>0.2572065572610926</v>
+        <v>0.287879470145082</v>
       </c>
       <c r="Q16">
-        <v>13.9850435683028</v>
+        <v>15.398403326558</v>
       </c>
       <c r="R16">
-        <v>13.9850435683028</v>
+        <v>138.585629939022</v>
       </c>
       <c r="S16">
-        <v>0.02502122137215891</v>
+        <v>0.0145621043209771</v>
       </c>
       <c r="T16">
-        <v>0.02502122137215891</v>
+        <v>0.02343238812702589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H17">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I17">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J17">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.2164749806597</v>
+        <v>16.123205</v>
       </c>
       <c r="N17">
-        <v>15.2164749806597</v>
+        <v>48.369615</v>
       </c>
       <c r="O17">
-        <v>0.1746903191774809</v>
+        <v>0.1787339249688891</v>
       </c>
       <c r="P17">
-        <v>0.1746903191774809</v>
+        <v>0.2022718449518643</v>
       </c>
       <c r="Q17">
-        <v>9.498403736953835</v>
+        <v>10.819331606405</v>
       </c>
       <c r="R17">
-        <v>9.498403736953835</v>
+        <v>97.37398445764502</v>
       </c>
       <c r="S17">
-        <v>0.01699398800037529</v>
+        <v>0.01023172547143119</v>
       </c>
       <c r="T17">
-        <v>0.01699398800037529</v>
+        <v>0.01646422503033309</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H18">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I18">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J18">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.68054366758539</v>
+        <v>7.213393000000001</v>
       </c>
       <c r="N18">
-        <v>6.68054366758539</v>
+        <v>21.640179</v>
       </c>
       <c r="O18">
-        <v>0.07669491830748536</v>
+        <v>0.07996412892059052</v>
       </c>
       <c r="P18">
-        <v>0.07669491830748536</v>
+        <v>0.09049480611781982</v>
       </c>
       <c r="Q18">
-        <v>4.170118310431796</v>
+        <v>4.840482452113001</v>
       </c>
       <c r="R18">
-        <v>4.170118310431796</v>
+        <v>43.56434206901701</v>
       </c>
       <c r="S18">
-        <v>0.007460931593370074</v>
+        <v>0.00457759216567323</v>
       </c>
       <c r="T18">
-        <v>0.007460931593370074</v>
+        <v>0.007365962634862578</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H19">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I19">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J19">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.137327756435</v>
+        <v>24.6333055</v>
       </c>
       <c r="N19">
-        <v>24.137327756435</v>
+        <v>49.266611</v>
       </c>
       <c r="O19">
-        <v>0.2771047496363243</v>
+        <v>0.2730727158138051</v>
       </c>
       <c r="P19">
-        <v>0.2771047496363243</v>
+        <v>0.2060228989107275</v>
       </c>
       <c r="Q19">
-        <v>15.06696422484191</v>
+        <v>16.5299579560255</v>
       </c>
       <c r="R19">
-        <v>15.06696422484191</v>
+        <v>99.179747736153</v>
       </c>
       <c r="S19">
-        <v>0.02695693048326481</v>
+        <v>0.01563220335720448</v>
       </c>
       <c r="T19">
-        <v>0.02695693048326481</v>
+        <v>0.0167695477829601</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H20">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I20">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J20">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.84069881079411</v>
+        <v>6.8585525</v>
       </c>
       <c r="N20">
-        <v>6.84069881079411</v>
+        <v>13.717105</v>
       </c>
       <c r="O20">
-        <v>0.07853355393897071</v>
+        <v>0.07603054156603395</v>
       </c>
       <c r="P20">
-        <v>0.07853355393897071</v>
+        <v>0.05736212983602292</v>
       </c>
       <c r="Q20">
-        <v>27.68114542625112</v>
+        <v>63.15628455317125</v>
       </c>
       <c r="R20">
-        <v>27.68114542625112</v>
+        <v>252.625138212685</v>
       </c>
       <c r="S20">
-        <v>0.04952548514864643</v>
+        <v>0.05972621866595641</v>
       </c>
       <c r="T20">
-        <v>0.04952548514864643</v>
+        <v>0.0427144595860901</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H21">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I21">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J21">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.8262953651187</v>
+        <v>12.43236666666667</v>
       </c>
       <c r="N21">
-        <v>11.8262953651187</v>
+        <v>37.2971</v>
       </c>
       <c r="O21">
-        <v>0.1357699016786463</v>
+        <v>0.1378191055057426</v>
       </c>
       <c r="P21">
-        <v>0.1357699016786463</v>
+        <v>0.1559688500384834</v>
       </c>
       <c r="Q21">
-        <v>47.85554969020011</v>
+        <v>114.4821865647833</v>
       </c>
       <c r="R21">
-        <v>47.85554969020011</v>
+        <v>686.8931193886999</v>
       </c>
       <c r="S21">
-        <v>0.08562034839839708</v>
+        <v>0.1082645718712047</v>
       </c>
       <c r="T21">
-        <v>0.08562034839839708</v>
+        <v>0.1161415233482838</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H22">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I22">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J22">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.4040871975781</v>
+        <v>22.947038</v>
       </c>
       <c r="N22">
-        <v>22.4040871975781</v>
+        <v>68.841114</v>
       </c>
       <c r="O22">
-        <v>0.2572065572610926</v>
+        <v>0.2543795832249386</v>
       </c>
       <c r="P22">
-        <v>0.2572065572610926</v>
+        <v>0.287879470145082</v>
       </c>
       <c r="Q22">
-        <v>90.65898280450344</v>
+        <v>211.305470298643</v>
       </c>
       <c r="R22">
-        <v>90.65898280450344</v>
+        <v>1267.832821791858</v>
       </c>
       <c r="S22">
-        <v>0.1622017455324609</v>
+        <v>0.1998293093657898</v>
       </c>
       <c r="T22">
-        <v>0.1622017455324609</v>
+        <v>0.2143681907964123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H23">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I23">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J23">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.2164749806597</v>
+        <v>16.123205</v>
       </c>
       <c r="N23">
-        <v>15.2164749806597</v>
+        <v>48.369615</v>
       </c>
       <c r="O23">
-        <v>0.1746903191774809</v>
+        <v>0.1787339249688891</v>
       </c>
       <c r="P23">
-        <v>0.1746903191774809</v>
+        <v>0.2022718449518643</v>
       </c>
       <c r="Q23">
-        <v>61.57403921218047</v>
+        <v>148.4688967371925</v>
       </c>
       <c r="R23">
-        <v>61.57403921218047</v>
+        <v>890.813380423155</v>
       </c>
       <c r="S23">
-        <v>0.1101646668729637</v>
+        <v>0.140405437944237</v>
       </c>
       <c r="T23">
-        <v>0.1101646668729637</v>
+        <v>0.1506208463893976</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H24">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I24">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J24">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.68054366758539</v>
+        <v>7.213393000000001</v>
       </c>
       <c r="N24">
-        <v>6.68054366758539</v>
+        <v>21.640179</v>
       </c>
       <c r="O24">
-        <v>0.07669491830748536</v>
+        <v>0.07996412892059052</v>
       </c>
       <c r="P24">
-        <v>0.07669491830748536</v>
+        <v>0.09049480611781982</v>
       </c>
       <c r="Q24">
-        <v>27.03307160623038</v>
+        <v>66.42379728111051</v>
       </c>
       <c r="R24">
-        <v>27.03307160623038</v>
+        <v>398.542783686663</v>
       </c>
       <c r="S24">
-        <v>0.04836598940327798</v>
+        <v>0.06281627029048466</v>
       </c>
       <c r="T24">
-        <v>0.04836598940327798</v>
+        <v>0.06738656234907116</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H25">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I25">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J25">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.137327756435</v>
+        <v>24.6333055</v>
       </c>
       <c r="N25">
-        <v>24.137327756435</v>
+        <v>49.266611</v>
       </c>
       <c r="O25">
-        <v>0.2771047496363243</v>
+        <v>0.2730727158138051</v>
       </c>
       <c r="P25">
-        <v>0.2771047496363243</v>
+        <v>0.2060228989107275</v>
       </c>
       <c r="Q25">
-        <v>97.67260601689934</v>
+        <v>226.8332934162417</v>
       </c>
       <c r="R25">
-        <v>97.67260601689934</v>
+        <v>907.3331736649669</v>
       </c>
       <c r="S25">
-        <v>0.174750109658835</v>
+        <v>0.2145138045904448</v>
       </c>
       <c r="T25">
-        <v>0.174750109658835</v>
+        <v>0.1534140523458209</v>
       </c>
     </row>
   </sheetData>
